--- a/Attachments-and-import-files/ExportItems.xlsx
+++ b/Attachments-and-import-files/ExportItems.xlsx
@@ -12,60 +12,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
   <si>
     <t xml:space="preserve">Sl. no.</t>
   </si>
   <si>
-    <t xml:space="preserve">RateContracts Reference No</t>
+    <t xml:space="preserve">##RId##</t>
+  </si>
+  <si>
+    <t xml:space="preserve">##QId##</t>
   </si>
   <si>
     <t xml:space="preserve">Item Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Item Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Make</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Part Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country of origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Order Quantity</t>
+    <t xml:space="preserve">PartNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Part Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CountryOfOrigin</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Shipping Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC-00159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL MARKER 8/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wsdsds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wedwdw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeadTime (Calender Days)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS Reducer 2" x 1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduit &amp; Fittings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable Tray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabinet &amp; Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door and Window Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCI Accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabinet with Smart Card Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Control System</t>
+  </si>
+  <si>
+    <t>Notes 1</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Make 1</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>PartNo. 1</t>
+  </si>
+  <si>
+    <t>ReqPart. 1</t>
+  </si>
+  <si>
+    <t>ReqManu. 1</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Notes 2</t>
+  </si>
+  <si>
+    <t>Make 2</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>PartNo. 2</t>
+  </si>
+  <si>
+    <t>ReqPart. 2</t>
+  </si>
+  <si>
+    <t>ReqManu. 2</t>
+  </si>
+  <si>
+    <t>Notes 3</t>
+  </si>
+  <si>
+    <t>Make 3</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>PartNo. 3</t>
+  </si>
+  <si>
+    <t>ReqPart. 3</t>
+  </si>
+  <si>
+    <t>ReqManu. 3</t>
+  </si>
+  <si>
+    <t>Notes 4</t>
+  </si>
+  <si>
+    <t>Make 4</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>PartNo. 4</t>
+  </si>
+  <si>
+    <t>ReqPart. 4</t>
+  </si>
+  <si>
+    <t>ReqManu. 4</t>
   </si>
 </sst>
 </file>
@@ -73,18 +199,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,89 +228,331 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>12</v>
+      <c r="B2" s="0">
+        <v>4293</v>
+      </c>
+      <c r="C2" s="0">
+        <v>79776</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H2" s="0">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>3.0</v>
+        <v>34</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>37</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="n" s="0">
+        <v>25.27</v>
+      </c>
+      <c r="R2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="T2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0">
+        <v>4294</v>
+      </c>
+      <c r="C3" s="0">
+        <v>80242</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="n" s="0">
+        <v>25.27</v>
+      </c>
+      <c r="R3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="T3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0">
+        <v>4295</v>
+      </c>
+      <c r="C4" s="0">
+        <v>82351</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="n" s="0">
+        <v>25.27</v>
+      </c>
+      <c r="R4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="T4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4296</v>
+      </c>
+      <c r="C5" s="0">
+        <v>78871</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="n" s="0">
+        <v>25.27</v>
+      </c>
+      <c r="R5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="T5" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
